--- a/20241221 Cronograma IT v3 - copia (1).xlsx
+++ b/20241221 Cronograma IT v3 - copia (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aresep-my.sharepoint.com/personal/alfarove_aresep_go_cr/Documents/Escritorio/Prediccion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfarove\OneDrive - ARESEP\Escritorio\Prediccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{CA2516F4-D874-4277-8A8C-B0D6778775D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C47F523-107F-4961-9795-5B4474B529CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF63214-5E46-4FDB-9370-1436771CF849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6842" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6840" uniqueCount="1606">
   <si>
     <t>ID</t>
   </si>
@@ -4893,11 +4893,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4913,10 +4919,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5218,8 +5220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="H500" sqref="H500"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5231,7 +5233,7 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5257,7 +5259,7 @@
       <c r="G1" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -5283,7 +5285,7 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
@@ -5309,7 +5311,7 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
@@ -5335,8 +5337,8 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
+      <c r="H4" s="5">
+        <v>2</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -5364,7 +5366,7 @@
       <c r="G5" t="s">
         <v>1599</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="s">
@@ -5393,7 +5395,7 @@
       <c r="G6" t="s">
         <v>1599</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I6" t="s">
@@ -5422,7 +5424,7 @@
       <c r="G7" t="s">
         <v>1082</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I7" t="s">
@@ -5451,7 +5453,7 @@
       <c r="G8" t="s">
         <v>1600</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="s">
@@ -5480,7 +5482,7 @@
       <c r="G9" t="s">
         <v>1090</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I9" t="s">
@@ -5509,7 +5511,7 @@
       <c r="G10" t="s">
         <v>1082</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="s">
@@ -5538,7 +5540,7 @@
       <c r="G11" t="s">
         <v>1090</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I11" t="s">
@@ -5564,7 +5566,7 @@
       <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I12" t="s">
@@ -5593,7 +5595,7 @@
       <c r="G13" t="s">
         <v>1078</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I13" t="s">
@@ -5622,7 +5624,7 @@
       <c r="G14" t="s">
         <v>1090</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I14" t="s">
@@ -5651,7 +5653,7 @@
       <c r="G15" t="s">
         <v>1078</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I15" t="s">
@@ -5680,7 +5682,7 @@
       <c r="G16" t="s">
         <v>1090</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I16" t="s">
@@ -5706,7 +5708,7 @@
       <c r="F17" t="s">
         <v>13</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I17" t="s">
@@ -5735,7 +5737,7 @@
       <c r="G18" t="s">
         <v>1601</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I18" t="s">
@@ -5764,7 +5766,7 @@
       <c r="G19" t="s">
         <v>1090</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I19" t="s">
@@ -5793,7 +5795,7 @@
       <c r="G20" t="s">
         <v>1602</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I20" t="s">
@@ -5822,7 +5824,7 @@
       <c r="G21" t="s">
         <v>1602</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I21" t="s">
@@ -5848,7 +5850,7 @@
       <c r="F22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I22" t="s">
@@ -5877,7 +5879,7 @@
       <c r="G23" t="s">
         <v>1090</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I23" t="s">
@@ -5906,7 +5908,7 @@
       <c r="G24" t="s">
         <v>1082</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I24" t="s">
@@ -5935,7 +5937,7 @@
       <c r="G25" t="s">
         <v>1090</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I25" t="s">
@@ -5961,11 +5963,8 @@
       <c r="F26" t="s">
         <v>13</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="I26" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5990,7 +5989,7 @@
       <c r="G27" t="s">
         <v>1090</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I27" t="s">
@@ -6019,7 +6018,7 @@
       <c r="G28" t="s">
         <v>1090</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I28" t="s">
@@ -6045,7 +6044,7 @@
       <c r="F29" t="s">
         <v>13</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I29" t="s">
@@ -6074,7 +6073,7 @@
       <c r="G30" t="s">
         <v>1090</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I30" t="s">
@@ -6103,7 +6102,7 @@
       <c r="G31" t="s">
         <v>1080</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I31" t="s">
@@ -6132,7 +6131,7 @@
       <c r="G32" t="s">
         <v>1067</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I32" t="s">
@@ -6161,7 +6160,7 @@
       <c r="G33" t="s">
         <v>1091</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I33" t="s">
@@ -6187,6 +6186,9 @@
       <c r="F34" t="s">
         <v>114</v>
       </c>
+      <c r="H34" s="5">
+        <v>9</v>
+      </c>
       <c r="I34" t="s">
         <v>13</v>
       </c>
@@ -6210,7 +6212,7 @@
       <c r="F35" t="s">
         <v>13</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I35" t="s">
@@ -6236,7 +6238,7 @@
       <c r="F36" t="s">
         <v>13</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I36" t="s">
@@ -6265,7 +6267,7 @@
       <c r="G37" t="s">
         <v>1599</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I37" t="s">
@@ -6294,7 +6296,7 @@
       <c r="G38" t="s">
         <v>1599</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I38" t="s">
@@ -6323,7 +6325,7 @@
       <c r="G39" t="s">
         <v>1082</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I39" t="s">
@@ -6352,7 +6354,7 @@
       <c r="G40" t="s">
         <v>1600</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I40" t="s">
@@ -6381,7 +6383,7 @@
       <c r="G41" t="s">
         <v>1090</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I41" t="s">
@@ -6410,7 +6412,7 @@
       <c r="G42" t="s">
         <v>1082</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I42" t="s">
@@ -6439,7 +6441,7 @@
       <c r="G43" t="s">
         <v>1090</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I43" t="s">
@@ -6465,7 +6467,7 @@
       <c r="F44" t="s">
         <v>13</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I44" t="s">
@@ -6494,7 +6496,7 @@
       <c r="G45" t="s">
         <v>1078</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I45" t="s">
@@ -6523,7 +6525,7 @@
       <c r="G46" t="s">
         <v>1090</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I46" t="s">
@@ -6552,7 +6554,7 @@
       <c r="G47" t="s">
         <v>1078</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I47" t="s">
@@ -6581,7 +6583,7 @@
       <c r="G48" t="s">
         <v>1090</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I48" t="s">
@@ -6607,7 +6609,7 @@
       <c r="F49" t="s">
         <v>13</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I49" t="s">
@@ -6636,7 +6638,7 @@
       <c r="G50" t="s">
         <v>1601</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I50" t="s">
@@ -6665,7 +6667,7 @@
       <c r="G51" t="s">
         <v>1090</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I51" t="s">
@@ -6694,7 +6696,7 @@
       <c r="G52" t="s">
         <v>1602</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I52" t="s">
@@ -6723,7 +6725,7 @@
       <c r="G53" t="s">
         <v>1602</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I53" t="s">
@@ -6749,7 +6751,7 @@
       <c r="F54" t="s">
         <v>13</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I54" t="s">
@@ -6778,7 +6780,7 @@
       <c r="G55" t="s">
         <v>1090</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I55" t="s">
@@ -6807,7 +6809,7 @@
       <c r="G56" t="s">
         <v>1082</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I56" t="s">
@@ -6836,7 +6838,7 @@
       <c r="G57" t="s">
         <v>1090</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I57" t="s">
@@ -6862,7 +6864,7 @@
       <c r="F58" t="s">
         <v>13</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I58" t="s">
@@ -6891,7 +6893,7 @@
       <c r="G59" t="s">
         <v>1090</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I59" t="s">
@@ -6920,7 +6922,7 @@
       <c r="G60" t="s">
         <v>1090</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I60" t="s">
@@ -6946,7 +6948,7 @@
       <c r="F61" t="s">
         <v>13</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I61" t="s">
@@ -6975,7 +6977,7 @@
       <c r="G62" t="s">
         <v>1090</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I62" t="s">
@@ -7004,7 +7006,7 @@
       <c r="G63" t="s">
         <v>1080</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I63" t="s">
@@ -7033,7 +7035,7 @@
       <c r="G64" t="s">
         <v>1067</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I64" t="s">
@@ -7062,7 +7064,7 @@
       <c r="G65" t="s">
         <v>1091</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I65" t="s">
@@ -7088,6 +7090,9 @@
       <c r="F66" t="s">
         <v>181</v>
       </c>
+      <c r="H66" s="5">
+        <v>9</v>
+      </c>
       <c r="I66" t="s">
         <v>13</v>
       </c>
@@ -7111,7 +7116,7 @@
       <c r="F67" t="s">
         <v>13</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I67" t="s">
@@ -7137,7 +7142,7 @@
       <c r="F68" t="s">
         <v>13</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I68" t="s">
@@ -7166,7 +7171,7 @@
       <c r="G69" t="s">
         <v>1599</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I69" t="s">
@@ -7195,7 +7200,7 @@
       <c r="G70" t="s">
         <v>1599</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I70" t="s">
@@ -7224,7 +7229,7 @@
       <c r="G71" t="s">
         <v>1082</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I71" t="s">
@@ -7253,7 +7258,7 @@
       <c r="G72" t="s">
         <v>1600</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I72" t="s">
@@ -7282,7 +7287,7 @@
       <c r="G73" t="s">
         <v>1090</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I73" t="s">
@@ -7311,7 +7316,7 @@
       <c r="G74" t="s">
         <v>1082</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I74" t="s">
@@ -7340,7 +7345,7 @@
       <c r="G75" t="s">
         <v>1090</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I75" t="s">
@@ -7366,7 +7371,7 @@
       <c r="F76" t="s">
         <v>13</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I76" t="s">
@@ -7395,7 +7400,7 @@
       <c r="G77" t="s">
         <v>1078</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I77" t="s">
@@ -7424,7 +7429,7 @@
       <c r="G78" t="s">
         <v>1090</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I78" t="s">
@@ -7453,7 +7458,7 @@
       <c r="G79" t="s">
         <v>1078</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I79" t="s">
@@ -7482,7 +7487,7 @@
       <c r="G80" t="s">
         <v>1090</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I80" t="s">
@@ -7508,7 +7513,7 @@
       <c r="F81" t="s">
         <v>13</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I81" t="s">
@@ -7537,7 +7542,7 @@
       <c r="G82" t="s">
         <v>1601</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I82" t="s">
@@ -7566,7 +7571,7 @@
       <c r="G83" t="s">
         <v>1090</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I83" t="s">
@@ -7595,7 +7600,7 @@
       <c r="G84" t="s">
         <v>1602</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I84" t="s">
@@ -7624,7 +7629,7 @@
       <c r="G85" t="s">
         <v>1602</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I85" t="s">
@@ -7650,7 +7655,7 @@
       <c r="F86" t="s">
         <v>13</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I86" t="s">
@@ -7679,7 +7684,7 @@
       <c r="G87" t="s">
         <v>1090</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I87" t="s">
@@ -7708,7 +7713,7 @@
       <c r="G88" t="s">
         <v>1082</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I88" t="s">
@@ -7737,7 +7742,7 @@
       <c r="G89" t="s">
         <v>1090</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I89" t="s">
@@ -7763,7 +7768,7 @@
       <c r="F90" t="s">
         <v>13</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I90" t="s">
@@ -7792,7 +7797,7 @@
       <c r="G91" t="s">
         <v>1090</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I91" t="s">
@@ -7821,7 +7826,7 @@
       <c r="G92" t="s">
         <v>1090</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I92" t="s">
@@ -7847,7 +7852,7 @@
       <c r="F93" t="s">
         <v>13</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I93" t="s">
@@ -7876,7 +7881,7 @@
       <c r="G94" t="s">
         <v>1090</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I94" t="s">
@@ -7905,7 +7910,7 @@
       <c r="G95" t="s">
         <v>1080</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I95" t="s">
@@ -7934,7 +7939,7 @@
       <c r="G96" t="s">
         <v>1067</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I96" t="s">
@@ -7963,7 +7968,7 @@
       <c r="G97" t="s">
         <v>1091</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I97" t="s">
@@ -7989,6 +7994,9 @@
       <c r="F98" t="s">
         <v>244</v>
       </c>
+      <c r="H98" s="5">
+        <v>9</v>
+      </c>
       <c r="I98" t="s">
         <v>13</v>
       </c>
@@ -8012,7 +8020,7 @@
       <c r="F99" t="s">
         <v>13</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I99" t="s">
@@ -8038,7 +8046,7 @@
       <c r="F100" t="s">
         <v>13</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I100" t="s">
@@ -8067,7 +8075,7 @@
       <c r="G101" t="s">
         <v>1599</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I101" t="s">
@@ -8096,7 +8104,7 @@
       <c r="G102" t="s">
         <v>1599</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I102" t="s">
@@ -8125,7 +8133,7 @@
       <c r="G103" t="s">
         <v>1082</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I103" t="s">
@@ -8154,7 +8162,7 @@
       <c r="G104" t="s">
         <v>1600</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I104" t="s">
@@ -8183,7 +8191,7 @@
       <c r="G105" t="s">
         <v>1090</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I105" t="s">
@@ -8212,7 +8220,7 @@
       <c r="G106" t="s">
         <v>1082</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I106" t="s">
@@ -8241,7 +8249,7 @@
       <c r="G107" t="s">
         <v>1090</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I107" t="s">
@@ -8267,7 +8275,7 @@
       <c r="F108" t="s">
         <v>13</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I108" t="s">
@@ -8296,7 +8304,7 @@
       <c r="G109" t="s">
         <v>1078</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I109" t="s">
@@ -8325,7 +8333,7 @@
       <c r="G110" t="s">
         <v>1090</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I110" t="s">
@@ -8354,7 +8362,7 @@
       <c r="G111" t="s">
         <v>1078</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I111" t="s">
@@ -8383,7 +8391,7 @@
       <c r="G112" t="s">
         <v>1090</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I112" t="s">
@@ -8409,7 +8417,7 @@
       <c r="F113" t="s">
         <v>13</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I113" t="s">
@@ -8438,7 +8446,7 @@
       <c r="G114" t="s">
         <v>1601</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I114" t="s">
@@ -8467,7 +8475,7 @@
       <c r="G115" t="s">
         <v>1090</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I115" t="s">
@@ -8496,7 +8504,7 @@
       <c r="G116" t="s">
         <v>1602</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I116" t="s">
@@ -8525,7 +8533,7 @@
       <c r="G117" t="s">
         <v>1602</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I117" t="s">
@@ -8551,7 +8559,7 @@
       <c r="F118" t="s">
         <v>13</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I118" t="s">
@@ -8580,7 +8588,7 @@
       <c r="G119" t="s">
         <v>1090</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I119" t="s">
@@ -8609,7 +8617,7 @@
       <c r="G120" t="s">
         <v>1082</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I120" t="s">
@@ -8638,7 +8646,7 @@
       <c r="G121" t="s">
         <v>1090</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I121" t="s">
@@ -8664,7 +8672,7 @@
       <c r="F122" t="s">
         <v>13</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I122" t="s">
@@ -8693,7 +8701,7 @@
       <c r="G123" t="s">
         <v>1090</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I123" t="s">
@@ -8722,7 +8730,7 @@
       <c r="G124" t="s">
         <v>1090</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I124" t="s">
@@ -8748,7 +8756,7 @@
       <c r="F125" t="s">
         <v>13</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I125" t="s">
@@ -8777,7 +8785,7 @@
       <c r="G126" t="s">
         <v>1090</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I126" t="s">
@@ -8806,7 +8814,7 @@
       <c r="G127" t="s">
         <v>1080</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I127" t="s">
@@ -8835,7 +8843,7 @@
       <c r="G128" t="s">
         <v>1067</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I128" t="s">
@@ -8864,7 +8872,7 @@
       <c r="G129" t="s">
         <v>1091</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I129" t="s">
@@ -8890,6 +8898,9 @@
       <c r="F130" t="s">
         <v>306</v>
       </c>
+      <c r="H130" s="5">
+        <v>9</v>
+      </c>
       <c r="I130" t="s">
         <v>13</v>
       </c>
@@ -8913,7 +8924,7 @@
       <c r="F131" t="s">
         <v>13</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I131" t="s">
@@ -8939,7 +8950,7 @@
       <c r="F132" t="s">
         <v>13</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I132" t="s">
@@ -8968,7 +8979,7 @@
       <c r="G133" t="s">
         <v>1599</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I133" t="s">
@@ -8997,7 +9008,7 @@
       <c r="G134" t="s">
         <v>1599</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I134" t="s">
@@ -9026,7 +9037,7 @@
       <c r="G135" t="s">
         <v>1082</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I135" t="s">
@@ -9055,7 +9066,7 @@
       <c r="G136" t="s">
         <v>1600</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I136" t="s">
@@ -9084,7 +9095,7 @@
       <c r="G137" t="s">
         <v>1090</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I137" t="s">
@@ -9113,7 +9124,7 @@
       <c r="G138" t="s">
         <v>1082</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I138" t="s">
@@ -9142,7 +9153,7 @@
       <c r="G139" t="s">
         <v>1090</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I139" t="s">
@@ -9168,7 +9179,7 @@
       <c r="F140" t="s">
         <v>13</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I140" t="s">
@@ -9197,7 +9208,7 @@
       <c r="G141" t="s">
         <v>1078</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I141" t="s">
@@ -9226,7 +9237,7 @@
       <c r="G142" t="s">
         <v>1090</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I142" t="s">
@@ -9255,7 +9266,7 @@
       <c r="G143" t="s">
         <v>1078</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I143" t="s">
@@ -9284,7 +9295,7 @@
       <c r="G144" t="s">
         <v>1090</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I144" t="s">
@@ -9310,7 +9321,7 @@
       <c r="F145" t="s">
         <v>13</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I145" t="s">
@@ -9339,7 +9350,7 @@
       <c r="G146" t="s">
         <v>1601</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I146" t="s">
@@ -9368,7 +9379,7 @@
       <c r="G147" t="s">
         <v>1090</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I147" t="s">
@@ -9397,7 +9408,7 @@
       <c r="G148" t="s">
         <v>1602</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I148" t="s">
@@ -9426,7 +9437,7 @@
       <c r="G149" t="s">
         <v>1602</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I149" t="s">
@@ -9452,7 +9463,7 @@
       <c r="F150" t="s">
         <v>13</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I150" t="s">
@@ -9481,7 +9492,7 @@
       <c r="G151" t="s">
         <v>1090</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I151" t="s">
@@ -9510,7 +9521,7 @@
       <c r="G152" t="s">
         <v>1082</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H152" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I152" t="s">
@@ -9539,7 +9550,7 @@
       <c r="G153" t="s">
         <v>1090</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I153" t="s">
@@ -9565,7 +9576,7 @@
       <c r="F154" t="s">
         <v>13</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I154" t="s">
@@ -9594,7 +9605,7 @@
       <c r="G155" t="s">
         <v>1090</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I155" t="s">
@@ -9623,7 +9634,7 @@
       <c r="G156" t="s">
         <v>1090</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H156" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I156" t="s">
@@ -9649,7 +9660,7 @@
       <c r="F157" t="s">
         <v>13</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I157" t="s">
@@ -9678,7 +9689,7 @@
       <c r="G158" t="s">
         <v>1090</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I158" t="s">
@@ -9707,7 +9718,7 @@
       <c r="G159" t="s">
         <v>1080</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I159" t="s">
@@ -9736,7 +9747,7 @@
       <c r="G160" t="s">
         <v>1067</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H160" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I160" t="s">
@@ -9765,7 +9776,7 @@
       <c r="G161" t="s">
         <v>1091</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H161" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I161" t="s">
@@ -9791,6 +9802,9 @@
       <c r="F162" t="s">
         <v>368</v>
       </c>
+      <c r="H162" s="5">
+        <v>9</v>
+      </c>
       <c r="I162" t="s">
         <v>13</v>
       </c>
@@ -9814,7 +9828,7 @@
       <c r="F163" t="s">
         <v>13</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I163" t="s">
@@ -9840,7 +9854,7 @@
       <c r="F164" t="s">
         <v>13</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I164" t="s">
@@ -9869,7 +9883,7 @@
       <c r="G165" t="s">
         <v>1599</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H165" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I165" t="s">
@@ -9898,7 +9912,7 @@
       <c r="G166" t="s">
         <v>1599</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H166" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I166" t="s">
@@ -9927,7 +9941,7 @@
       <c r="G167" t="s">
         <v>1082</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H167" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I167" t="s">
@@ -9956,7 +9970,7 @@
       <c r="G168" t="s">
         <v>1600</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H168" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I168" t="s">
@@ -9985,7 +9999,7 @@
       <c r="G169" t="s">
         <v>1090</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H169" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I169" t="s">
@@ -10014,7 +10028,7 @@
       <c r="G170" t="s">
         <v>1082</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H170" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I170" t="s">
@@ -10043,7 +10057,7 @@
       <c r="G171" t="s">
         <v>1090</v>
       </c>
-      <c r="H171" t="s">
+      <c r="H171" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I171" t="s">
@@ -10069,7 +10083,7 @@
       <c r="F172" t="s">
         <v>13</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H172" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I172" t="s">
@@ -10098,7 +10112,7 @@
       <c r="G173" t="s">
         <v>1078</v>
       </c>
-      <c r="H173" t="s">
+      <c r="H173" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I173" t="s">
@@ -10127,7 +10141,7 @@
       <c r="G174" t="s">
         <v>1090</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H174" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I174" t="s">
@@ -10156,7 +10170,7 @@
       <c r="G175" t="s">
         <v>1078</v>
       </c>
-      <c r="H175" t="s">
+      <c r="H175" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I175" t="s">
@@ -10185,7 +10199,7 @@
       <c r="G176" t="s">
         <v>1090</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H176" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I176" t="s">
@@ -10211,7 +10225,7 @@
       <c r="F177" t="s">
         <v>13</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H177" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I177" t="s">
@@ -10240,7 +10254,7 @@
       <c r="G178" t="s">
         <v>1601</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H178" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I178" t="s">
@@ -10269,7 +10283,7 @@
       <c r="G179" t="s">
         <v>1090</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H179" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I179" t="s">
@@ -10298,7 +10312,7 @@
       <c r="G180" t="s">
         <v>1602</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H180" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I180" t="s">
@@ -10327,7 +10341,7 @@
       <c r="G181" t="s">
         <v>1602</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H181" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I181" t="s">
@@ -10353,7 +10367,7 @@
       <c r="F182" t="s">
         <v>13</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H182" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I182" t="s">
@@ -10382,7 +10396,7 @@
       <c r="G183" t="s">
         <v>1090</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H183" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I183" t="s">
@@ -10411,7 +10425,7 @@
       <c r="G184" t="s">
         <v>1082</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H184" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I184" t="s">
@@ -10440,7 +10454,7 @@
       <c r="G185" t="s">
         <v>1090</v>
       </c>
-      <c r="H185" t="s">
+      <c r="H185" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I185" t="s">
@@ -10466,7 +10480,7 @@
       <c r="F186" t="s">
         <v>13</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H186" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I186" t="s">
@@ -10495,7 +10509,7 @@
       <c r="G187" t="s">
         <v>1090</v>
       </c>
-      <c r="H187" t="s">
+      <c r="H187" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I187" t="s">
@@ -10524,7 +10538,7 @@
       <c r="G188" t="s">
         <v>1090</v>
       </c>
-      <c r="H188" t="s">
+      <c r="H188" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I188" t="s">
@@ -10550,7 +10564,7 @@
       <c r="F189" t="s">
         <v>13</v>
       </c>
-      <c r="H189" t="s">
+      <c r="H189" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I189" t="s">
@@ -10579,7 +10593,7 @@
       <c r="G190" t="s">
         <v>1090</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H190" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I190" t="s">
@@ -10608,7 +10622,7 @@
       <c r="G191" t="s">
         <v>1080</v>
       </c>
-      <c r="H191" t="s">
+      <c r="H191" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I191" t="s">
@@ -10637,7 +10651,7 @@
       <c r="G192" t="s">
         <v>1067</v>
       </c>
-      <c r="H192" t="s">
+      <c r="H192" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I192" t="s">
@@ -10666,7 +10680,7 @@
       <c r="G193" t="s">
         <v>1091</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H193" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I193" t="s">
@@ -10692,6 +10706,9 @@
       <c r="F194" t="s">
         <v>431</v>
       </c>
+      <c r="H194" s="5">
+        <v>9</v>
+      </c>
       <c r="I194" t="s">
         <v>13</v>
       </c>
@@ -10715,7 +10732,7 @@
       <c r="F195" t="s">
         <v>13</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H195" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I195" t="s">
@@ -10741,7 +10758,7 @@
       <c r="F196" t="s">
         <v>13</v>
       </c>
-      <c r="H196" t="s">
+      <c r="H196" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I196" t="s">
@@ -10770,7 +10787,7 @@
       <c r="G197" t="s">
         <v>1599</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H197" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I197" t="s">
@@ -10799,7 +10816,7 @@
       <c r="G198" t="s">
         <v>1599</v>
       </c>
-      <c r="H198" t="s">
+      <c r="H198" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I198" t="s">
@@ -10828,7 +10845,7 @@
       <c r="G199" t="s">
         <v>1082</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H199" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I199" t="s">
@@ -10857,7 +10874,7 @@
       <c r="G200" t="s">
         <v>1600</v>
       </c>
-      <c r="H200" t="s">
+      <c r="H200" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I200" t="s">
@@ -10886,7 +10903,7 @@
       <c r="G201" t="s">
         <v>1090</v>
       </c>
-      <c r="H201" t="s">
+      <c r="H201" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I201" t="s">
@@ -10915,7 +10932,7 @@
       <c r="G202" t="s">
         <v>1082</v>
       </c>
-      <c r="H202" t="s">
+      <c r="H202" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I202" t="s">
@@ -10944,7 +10961,7 @@
       <c r="G203" t="s">
         <v>1090</v>
       </c>
-      <c r="H203" t="s">
+      <c r="H203" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I203" t="s">
@@ -10970,7 +10987,7 @@
       <c r="F204" t="s">
         <v>13</v>
       </c>
-      <c r="H204" t="s">
+      <c r="H204" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I204" t="s">
@@ -10999,7 +11016,7 @@
       <c r="G205" t="s">
         <v>1078</v>
       </c>
-      <c r="H205" t="s">
+      <c r="H205" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I205" t="s">
@@ -11028,7 +11045,7 @@
       <c r="G206" t="s">
         <v>1090</v>
       </c>
-      <c r="H206" t="s">
+      <c r="H206" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I206" t="s">
@@ -11057,7 +11074,7 @@
       <c r="G207" t="s">
         <v>1078</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H207" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I207" t="s">
@@ -11086,7 +11103,7 @@
       <c r="G208" t="s">
         <v>1090</v>
       </c>
-      <c r="H208" t="s">
+      <c r="H208" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I208" t="s">
@@ -11112,7 +11129,7 @@
       <c r="F209" t="s">
         <v>13</v>
       </c>
-      <c r="H209" t="s">
+      <c r="H209" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I209" t="s">
@@ -11141,7 +11158,7 @@
       <c r="G210" t="s">
         <v>1601</v>
       </c>
-      <c r="H210" t="s">
+      <c r="H210" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I210" t="s">
@@ -11170,7 +11187,7 @@
       <c r="G211" t="s">
         <v>1090</v>
       </c>
-      <c r="H211" t="s">
+      <c r="H211" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I211" t="s">
@@ -11199,7 +11216,7 @@
       <c r="G212" t="s">
         <v>1602</v>
       </c>
-      <c r="H212" t="s">
+      <c r="H212" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I212" t="s">
@@ -11228,7 +11245,7 @@
       <c r="G213" t="s">
         <v>1602</v>
       </c>
-      <c r="H213" t="s">
+      <c r="H213" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I213" t="s">
@@ -11254,7 +11271,7 @@
       <c r="F214" t="s">
         <v>13</v>
       </c>
-      <c r="H214" t="s">
+      <c r="H214" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I214" t="s">
@@ -11283,7 +11300,7 @@
       <c r="G215" t="s">
         <v>1090</v>
       </c>
-      <c r="H215" t="s">
+      <c r="H215" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I215" t="s">
@@ -11312,7 +11329,7 @@
       <c r="G216" t="s">
         <v>1082</v>
       </c>
-      <c r="H216" t="s">
+      <c r="H216" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I216" t="s">
@@ -11341,7 +11358,7 @@
       <c r="G217" t="s">
         <v>1090</v>
       </c>
-      <c r="H217" t="s">
+      <c r="H217" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I217" t="s">
@@ -11367,7 +11384,7 @@
       <c r="F218" t="s">
         <v>13</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H218" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I218" t="s">
@@ -11396,7 +11413,7 @@
       <c r="G219" t="s">
         <v>1090</v>
       </c>
-      <c r="H219" t="s">
+      <c r="H219" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I219" t="s">
@@ -11425,7 +11442,7 @@
       <c r="G220" t="s">
         <v>1090</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H220" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I220" t="s">
@@ -11451,7 +11468,7 @@
       <c r="F221" t="s">
         <v>13</v>
       </c>
-      <c r="H221" t="s">
+      <c r="H221" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I221" t="s">
@@ -11480,7 +11497,7 @@
       <c r="G222" t="s">
         <v>1090</v>
       </c>
-      <c r="H222" t="s">
+      <c r="H222" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I222" t="s">
@@ -11509,7 +11526,7 @@
       <c r="G223" t="s">
         <v>1080</v>
       </c>
-      <c r="H223" t="s">
+      <c r="H223" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I223" t="s">
@@ -11538,7 +11555,7 @@
       <c r="G224" t="s">
         <v>1067</v>
       </c>
-      <c r="H224" t="s">
+      <c r="H224" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I224" t="s">
@@ -11567,7 +11584,7 @@
       <c r="G225" t="s">
         <v>1091</v>
       </c>
-      <c r="H225" t="s">
+      <c r="H225" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I225" t="s">
@@ -11593,6 +11610,9 @@
       <c r="F226" t="s">
         <v>494</v>
       </c>
+      <c r="H226" s="5">
+        <v>9</v>
+      </c>
       <c r="I226" t="s">
         <v>13</v>
       </c>
@@ -11616,7 +11636,7 @@
       <c r="F227" t="s">
         <v>13</v>
       </c>
-      <c r="H227" t="s">
+      <c r="H227" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I227" t="s">
@@ -11642,7 +11662,7 @@
       <c r="F228" t="s">
         <v>13</v>
       </c>
-      <c r="H228" t="s">
+      <c r="H228" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I228" t="s">
@@ -11671,7 +11691,7 @@
       <c r="G229" t="s">
         <v>1599</v>
       </c>
-      <c r="H229" t="s">
+      <c r="H229" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I229" t="s">
@@ -11700,7 +11720,7 @@
       <c r="G230" t="s">
         <v>1599</v>
       </c>
-      <c r="H230" t="s">
+      <c r="H230" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I230" t="s">
@@ -11729,7 +11749,7 @@
       <c r="G231" t="s">
         <v>1082</v>
       </c>
-      <c r="H231" t="s">
+      <c r="H231" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I231" t="s">
@@ -11758,7 +11778,7 @@
       <c r="G232" t="s">
         <v>1600</v>
       </c>
-      <c r="H232" t="s">
+      <c r="H232" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I232" t="s">
@@ -11787,7 +11807,7 @@
       <c r="G233" t="s">
         <v>1090</v>
       </c>
-      <c r="H233" t="s">
+      <c r="H233" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I233" t="s">
@@ -11816,7 +11836,7 @@
       <c r="G234" t="s">
         <v>1082</v>
       </c>
-      <c r="H234" t="s">
+      <c r="H234" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I234" t="s">
@@ -11845,7 +11865,7 @@
       <c r="G235" t="s">
         <v>1090</v>
       </c>
-      <c r="H235" t="s">
+      <c r="H235" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I235" t="s">
@@ -11871,7 +11891,7 @@
       <c r="F236" t="s">
         <v>13</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H236" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I236" t="s">
@@ -11900,7 +11920,7 @@
       <c r="G237" t="s">
         <v>1078</v>
       </c>
-      <c r="H237" t="s">
+      <c r="H237" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I237" t="s">
@@ -11929,7 +11949,7 @@
       <c r="G238" t="s">
         <v>1090</v>
       </c>
-      <c r="H238" t="s">
+      <c r="H238" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I238" t="s">
@@ -11958,7 +11978,7 @@
       <c r="G239" t="s">
         <v>1078</v>
       </c>
-      <c r="H239" t="s">
+      <c r="H239" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I239" t="s">
@@ -11987,7 +12007,7 @@
       <c r="G240" t="s">
         <v>1090</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H240" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I240" t="s">
@@ -12013,7 +12033,7 @@
       <c r="F241" t="s">
         <v>13</v>
       </c>
-      <c r="H241" t="s">
+      <c r="H241" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I241" t="s">
@@ -12042,7 +12062,7 @@
       <c r="G242" t="s">
         <v>1601</v>
       </c>
-      <c r="H242" t="s">
+      <c r="H242" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I242" t="s">
@@ -12071,7 +12091,7 @@
       <c r="G243" t="s">
         <v>1090</v>
       </c>
-      <c r="H243" t="s">
+      <c r="H243" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I243" t="s">
@@ -12100,7 +12120,7 @@
       <c r="G244" t="s">
         <v>1602</v>
       </c>
-      <c r="H244" t="s">
+      <c r="H244" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I244" t="s">
@@ -12129,7 +12149,7 @@
       <c r="G245" t="s">
         <v>1602</v>
       </c>
-      <c r="H245" t="s">
+      <c r="H245" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I245" t="s">
@@ -12155,7 +12175,7 @@
       <c r="F246" t="s">
         <v>13</v>
       </c>
-      <c r="H246" t="s">
+      <c r="H246" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I246" t="s">
@@ -12184,7 +12204,7 @@
       <c r="G247" t="s">
         <v>1090</v>
       </c>
-      <c r="H247" t="s">
+      <c r="H247" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I247" t="s">
@@ -12213,7 +12233,7 @@
       <c r="G248" t="s">
         <v>1082</v>
       </c>
-      <c r="H248" t="s">
+      <c r="H248" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I248" t="s">
@@ -12239,7 +12259,7 @@
       <c r="F249" t="s">
         <v>13</v>
       </c>
-      <c r="H249" t="s">
+      <c r="H249" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I249" t="s">
@@ -12268,7 +12288,7 @@
       <c r="G250" t="s">
         <v>1090</v>
       </c>
-      <c r="H250" t="s">
+      <c r="H250" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I250" t="s">
@@ -12297,7 +12317,7 @@
       <c r="G251" t="s">
         <v>1090</v>
       </c>
-      <c r="H251" t="s">
+      <c r="H251" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I251" t="s">
@@ -12323,7 +12343,7 @@
       <c r="F252" t="s">
         <v>13</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H252" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I252" t="s">
@@ -12352,7 +12372,7 @@
       <c r="G253" t="s">
         <v>1090</v>
       </c>
-      <c r="H253" t="s">
+      <c r="H253" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I253" t="s">
@@ -12381,7 +12401,7 @@
       <c r="G254" t="s">
         <v>1080</v>
       </c>
-      <c r="H254" t="s">
+      <c r="H254" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I254" t="s">
@@ -12410,7 +12430,7 @@
       <c r="G255" t="s">
         <v>1067</v>
       </c>
-      <c r="H255" t="s">
+      <c r="H255" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I255" t="s">
@@ -12439,7 +12459,7 @@
       <c r="G256" t="s">
         <v>1091</v>
       </c>
-      <c r="H256" t="s">
+      <c r="H256" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I256" t="s">
@@ -12465,7 +12485,7 @@
       <c r="F257" t="s">
         <v>558</v>
       </c>
-      <c r="H257" t="s">
+      <c r="H257" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I257" t="s">
@@ -12491,6 +12511,9 @@
       <c r="F258" t="s">
         <v>559</v>
       </c>
+      <c r="H258" s="5">
+        <v>9</v>
+      </c>
       <c r="I258" t="s">
         <v>13</v>
       </c>
@@ -12514,7 +12537,7 @@
       <c r="F259" t="s">
         <v>13</v>
       </c>
-      <c r="H259" t="s">
+      <c r="H259" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I259" t="s">
@@ -12540,7 +12563,7 @@
       <c r="F260" t="s">
         <v>13</v>
       </c>
-      <c r="H260" t="s">
+      <c r="H260" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I260" t="s">
@@ -12569,7 +12592,7 @@
       <c r="G261" t="s">
         <v>1599</v>
       </c>
-      <c r="H261" t="s">
+      <c r="H261" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I261" t="s">
@@ -12598,7 +12621,7 @@
       <c r="G262" t="s">
         <v>1599</v>
       </c>
-      <c r="H262" t="s">
+      <c r="H262" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I262" t="s">
@@ -12627,7 +12650,7 @@
       <c r="G263" t="s">
         <v>1082</v>
       </c>
-      <c r="H263" t="s">
+      <c r="H263" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I263" t="s">
@@ -12656,7 +12679,7 @@
       <c r="G264" t="s">
         <v>1090</v>
       </c>
-      <c r="H264" t="s">
+      <c r="H264" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I264" t="s">
@@ -12685,7 +12708,7 @@
       <c r="G265" t="s">
         <v>1082</v>
       </c>
-      <c r="H265" t="s">
+      <c r="H265" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I265" t="s">
@@ -12714,7 +12737,7 @@
       <c r="G266" t="s">
         <v>1082</v>
       </c>
-      <c r="H266" t="s">
+      <c r="H266" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I266" t="s">
@@ -12740,7 +12763,7 @@
       <c r="F267" t="s">
         <v>13</v>
       </c>
-      <c r="H267" t="s">
+      <c r="H267" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I267" t="s">
@@ -12769,7 +12792,7 @@
       <c r="G268" t="s">
         <v>1090</v>
       </c>
-      <c r="H268" t="s">
+      <c r="H268" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I268" t="s">
@@ -12798,7 +12821,7 @@
       <c r="G269" t="s">
         <v>1600</v>
       </c>
-      <c r="H269" t="s">
+      <c r="H269" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I269" t="s">
@@ -12827,7 +12850,7 @@
       <c r="G270" t="s">
         <v>1603</v>
       </c>
-      <c r="H270" t="s">
+      <c r="H270" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I270" t="s">
@@ -12856,7 +12879,7 @@
       <c r="G271" t="s">
         <v>1090</v>
       </c>
-      <c r="H271" t="s">
+      <c r="H271" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I271" t="s">
@@ -12885,7 +12908,7 @@
       <c r="G272" t="s">
         <v>1604</v>
       </c>
-      <c r="H272" t="s">
+      <c r="H272" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I272" t="s">
@@ -12911,7 +12934,7 @@
       <c r="F273" t="s">
         <v>13</v>
       </c>
-      <c r="H273" t="s">
+      <c r="H273" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I273" t="s">
@@ -12940,7 +12963,7 @@
       <c r="G274" t="s">
         <v>1078</v>
       </c>
-      <c r="H274" t="s">
+      <c r="H274" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I274" t="s">
@@ -12969,7 +12992,7 @@
       <c r="G275" t="s">
         <v>1090</v>
       </c>
-      <c r="H275" t="s">
+      <c r="H275" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I275" t="s">
@@ -12998,7 +13021,7 @@
       <c r="G276" t="s">
         <v>1078</v>
       </c>
-      <c r="H276" t="s">
+      <c r="H276" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I276" t="s">
@@ -13027,7 +13050,7 @@
       <c r="G277" t="s">
         <v>1090</v>
       </c>
-      <c r="H277" t="s">
+      <c r="H277" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I277" t="s">
@@ -13056,7 +13079,7 @@
       <c r="G278" t="s">
         <v>1090</v>
       </c>
-      <c r="H278" t="s">
+      <c r="H278" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I278" t="s">
@@ -13082,7 +13105,7 @@
       <c r="F279" t="s">
         <v>13</v>
       </c>
-      <c r="H279" t="s">
+      <c r="H279" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I279" t="s">
@@ -13111,7 +13134,7 @@
       <c r="G280" t="s">
         <v>1605</v>
       </c>
-      <c r="H280" t="s">
+      <c r="H280" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I280" t="s">
@@ -13140,7 +13163,7 @@
       <c r="G281" t="s">
         <v>1090</v>
       </c>
-      <c r="H281" t="s">
+      <c r="H281" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I281" t="s">
@@ -13169,7 +13192,7 @@
       <c r="G282" t="s">
         <v>1605</v>
       </c>
-      <c r="H282" t="s">
+      <c r="H282" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I282" t="s">
@@ -13198,7 +13221,7 @@
       <c r="G283" t="s">
         <v>1090</v>
       </c>
-      <c r="H283" t="s">
+      <c r="H283" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I283" t="s">
@@ -13224,7 +13247,7 @@
       <c r="F284" t="s">
         <v>13</v>
       </c>
-      <c r="H284" t="s">
+      <c r="H284" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I284" t="s">
@@ -13253,7 +13276,7 @@
       <c r="G285" t="s">
         <v>1601</v>
       </c>
-      <c r="H285" t="s">
+      <c r="H285" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I285" t="s">
@@ -13282,7 +13305,7 @@
       <c r="G286" t="s">
         <v>1090</v>
       </c>
-      <c r="H286" t="s">
+      <c r="H286" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I286" t="s">
@@ -13311,7 +13334,7 @@
       <c r="G287" t="s">
         <v>1602</v>
       </c>
-      <c r="H287" t="s">
+      <c r="H287" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I287" t="s">
@@ -13340,7 +13363,7 @@
       <c r="G288" t="s">
         <v>1602</v>
       </c>
-      <c r="H288" t="s">
+      <c r="H288" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I288" t="s">
@@ -13366,7 +13389,7 @@
       <c r="F289" t="s">
         <v>13</v>
       </c>
-      <c r="H289" t="s">
+      <c r="H289" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I289" t="s">
@@ -13395,7 +13418,7 @@
       <c r="G290" t="s">
         <v>1090</v>
       </c>
-      <c r="H290" t="s">
+      <c r="H290" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I290" t="s">
@@ -13424,7 +13447,7 @@
       <c r="G291" t="s">
         <v>1082</v>
       </c>
-      <c r="H291" t="s">
+      <c r="H291" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I291" t="s">
@@ -13450,7 +13473,7 @@
       <c r="F292" t="s">
         <v>13</v>
       </c>
-      <c r="H292" t="s">
+      <c r="H292" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I292" t="s">
@@ -13479,7 +13502,7 @@
       <c r="G293" t="s">
         <v>1090</v>
       </c>
-      <c r="H293" t="s">
+      <c r="H293" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I293" t="s">
@@ -13508,7 +13531,7 @@
       <c r="G294" t="s">
         <v>1599</v>
       </c>
-      <c r="H294" t="s">
+      <c r="H294" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I294" t="s">
@@ -13534,7 +13557,7 @@
       <c r="F295" t="s">
         <v>13</v>
       </c>
-      <c r="H295" t="s">
+      <c r="H295" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I295" t="s">
@@ -13563,7 +13586,7 @@
       <c r="G296" t="s">
         <v>1078</v>
       </c>
-      <c r="H296" t="s">
+      <c r="H296" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I296" t="s">
@@ -13592,7 +13615,7 @@
       <c r="G297" t="s">
         <v>1080</v>
       </c>
-      <c r="H297" t="s">
+      <c r="H297" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I297" t="s">
@@ -13621,7 +13644,7 @@
       <c r="G298" t="s">
         <v>1067</v>
       </c>
-      <c r="H298" t="s">
+      <c r="H298" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I298" t="s">
@@ -13650,7 +13673,7 @@
       <c r="G299" t="s">
         <v>1091</v>
       </c>
-      <c r="H299" t="s">
+      <c r="H299" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I299" t="s">
@@ -13676,6 +13699,9 @@
       <c r="F300" t="s">
         <v>661</v>
       </c>
+      <c r="H300" s="5">
+        <v>9</v>
+      </c>
       <c r="I300" t="s">
         <v>13</v>
       </c>
@@ -13699,7 +13725,7 @@
       <c r="F301" t="s">
         <v>13</v>
       </c>
-      <c r="H301" t="s">
+      <c r="H301" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I301" t="s">
@@ -13725,7 +13751,7 @@
       <c r="F302" t="s">
         <v>13</v>
       </c>
-      <c r="H302" t="s">
+      <c r="H302" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I302" t="s">
@@ -13754,7 +13780,7 @@
       <c r="G303" t="s">
         <v>1599</v>
       </c>
-      <c r="H303" t="s">
+      <c r="H303" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I303" t="s">
@@ -13783,7 +13809,7 @@
       <c r="G304" t="s">
         <v>1599</v>
       </c>
-      <c r="H304" t="s">
+      <c r="H304" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I304" t="s">
@@ -13812,7 +13838,7 @@
       <c r="G305" t="s">
         <v>1082</v>
       </c>
-      <c r="H305" t="s">
+      <c r="H305" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I305" t="s">
@@ -13841,7 +13867,7 @@
       <c r="G306" t="s">
         <v>1600</v>
       </c>
-      <c r="H306" t="s">
+      <c r="H306" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I306" t="s">
@@ -13870,7 +13896,7 @@
       <c r="G307" t="s">
         <v>1090</v>
       </c>
-      <c r="H307" t="s">
+      <c r="H307" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I307" t="s">
@@ -13899,7 +13925,7 @@
       <c r="G308" t="s">
         <v>1082</v>
       </c>
-      <c r="H308" t="s">
+      <c r="H308" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I308" t="s">
@@ -13928,7 +13954,7 @@
       <c r="G309" t="s">
         <v>1090</v>
       </c>
-      <c r="H309" t="s">
+      <c r="H309" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I309" t="s">
@@ -13954,7 +13980,7 @@
       <c r="F310" t="s">
         <v>13</v>
       </c>
-      <c r="H310" t="s">
+      <c r="H310" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I310" t="s">
@@ -13983,7 +14009,7 @@
       <c r="G311" t="s">
         <v>1078</v>
       </c>
-      <c r="H311" t="s">
+      <c r="H311" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I311" t="s">
@@ -14012,7 +14038,7 @@
       <c r="G312" t="s">
         <v>1090</v>
       </c>
-      <c r="H312" t="s">
+      <c r="H312" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I312" t="s">
@@ -14041,7 +14067,7 @@
       <c r="G313" t="s">
         <v>1078</v>
       </c>
-      <c r="H313" t="s">
+      <c r="H313" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I313" t="s">
@@ -14070,7 +14096,7 @@
       <c r="G314" t="s">
         <v>1090</v>
       </c>
-      <c r="H314" t="s">
+      <c r="H314" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I314" t="s">
@@ -14096,7 +14122,7 @@
       <c r="F315" t="s">
         <v>13</v>
       </c>
-      <c r="H315" t="s">
+      <c r="H315" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I315" t="s">
@@ -14125,7 +14151,7 @@
       <c r="G316" t="s">
         <v>1601</v>
       </c>
-      <c r="H316" t="s">
+      <c r="H316" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I316" t="s">
@@ -14154,7 +14180,7 @@
       <c r="G317" t="s">
         <v>1090</v>
       </c>
-      <c r="H317" t="s">
+      <c r="H317" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I317" t="s">
@@ -14183,7 +14209,7 @@
       <c r="G318" t="s">
         <v>1602</v>
       </c>
-      <c r="H318" t="s">
+      <c r="H318" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I318" t="s">
@@ -14212,7 +14238,7 @@
       <c r="G319" t="s">
         <v>1602</v>
       </c>
-      <c r="H319" t="s">
+      <c r="H319" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I319" t="s">
@@ -14238,7 +14264,7 @@
       <c r="F320" t="s">
         <v>13</v>
       </c>
-      <c r="H320" t="s">
+      <c r="H320" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I320" t="s">
@@ -14267,7 +14293,7 @@
       <c r="G321" t="s">
         <v>1090</v>
       </c>
-      <c r="H321" t="s">
+      <c r="H321" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I321" t="s">
@@ -14296,7 +14322,7 @@
       <c r="G322" t="s">
         <v>1082</v>
       </c>
-      <c r="H322" t="s">
+      <c r="H322" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I322" t="s">
@@ -14325,7 +14351,7 @@
       <c r="G323" t="s">
         <v>1090</v>
       </c>
-      <c r="H323" t="s">
+      <c r="H323" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I323" t="s">
@@ -14351,7 +14377,7 @@
       <c r="F324" t="s">
         <v>13</v>
       </c>
-      <c r="H324" t="s">
+      <c r="H324" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I324" t="s">
@@ -14380,7 +14406,7 @@
       <c r="G325" t="s">
         <v>1090</v>
       </c>
-      <c r="H325" t="s">
+      <c r="H325" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I325" t="s">
@@ -14409,7 +14435,7 @@
       <c r="G326" t="s">
         <v>1090</v>
       </c>
-      <c r="H326" t="s">
+      <c r="H326" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I326" t="s">
@@ -14435,7 +14461,7 @@
       <c r="F327" t="s">
         <v>13</v>
       </c>
-      <c r="H327" t="s">
+      <c r="H327" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I327" t="s">
@@ -14464,7 +14490,7 @@
       <c r="G328" t="s">
         <v>1090</v>
       </c>
-      <c r="H328" t="s">
+      <c r="H328" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I328" t="s">
@@ -14493,7 +14519,7 @@
       <c r="G329" t="s">
         <v>1080</v>
       </c>
-      <c r="H329" t="s">
+      <c r="H329" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I329" t="s">
@@ -14522,7 +14548,7 @@
       <c r="G330" t="s">
         <v>1067</v>
       </c>
-      <c r="H330" t="s">
+      <c r="H330" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I330" t="s">
@@ -14551,7 +14577,7 @@
       <c r="G331" t="s">
         <v>1091</v>
       </c>
-      <c r="H331" t="s">
+      <c r="H331" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I331" t="s">
@@ -14577,6 +14603,9 @@
       <c r="F332" t="s">
         <v>727</v>
       </c>
+      <c r="H332" s="5">
+        <v>9</v>
+      </c>
       <c r="I332" t="s">
         <v>13</v>
       </c>
@@ -14600,7 +14629,7 @@
       <c r="F333" t="s">
         <v>13</v>
       </c>
-      <c r="H333" t="s">
+      <c r="H333" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I333" t="s">
@@ -14626,7 +14655,7 @@
       <c r="F334" t="s">
         <v>13</v>
       </c>
-      <c r="H334" t="s">
+      <c r="H334" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I334" t="s">
@@ -14655,7 +14684,7 @@
       <c r="G335" t="s">
         <v>1599</v>
       </c>
-      <c r="H335" t="s">
+      <c r="H335" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I335" t="s">
@@ -14684,7 +14713,7 @@
       <c r="G336" t="s">
         <v>1599</v>
       </c>
-      <c r="H336" t="s">
+      <c r="H336" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I336" t="s">
@@ -14713,7 +14742,7 @@
       <c r="G337" t="s">
         <v>1082</v>
       </c>
-      <c r="H337" t="s">
+      <c r="H337" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I337" t="s">
@@ -14742,7 +14771,7 @@
       <c r="G338" t="s">
         <v>1600</v>
       </c>
-      <c r="H338" t="s">
+      <c r="H338" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I338" t="s">
@@ -14771,7 +14800,7 @@
       <c r="G339" t="s">
         <v>1090</v>
       </c>
-      <c r="H339" t="s">
+      <c r="H339" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I339" t="s">
@@ -14800,7 +14829,7 @@
       <c r="G340" t="s">
         <v>1082</v>
       </c>
-      <c r="H340" t="s">
+      <c r="H340" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I340" t="s">
@@ -14829,7 +14858,7 @@
       <c r="G341" t="s">
         <v>1090</v>
       </c>
-      <c r="H341" t="s">
+      <c r="H341" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I341" t="s">
@@ -14855,7 +14884,7 @@
       <c r="F342" t="s">
         <v>13</v>
       </c>
-      <c r="H342" t="s">
+      <c r="H342" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I342" t="s">
@@ -14884,7 +14913,7 @@
       <c r="G343" t="s">
         <v>1078</v>
       </c>
-      <c r="H343" t="s">
+      <c r="H343" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I343" t="s">
@@ -14913,7 +14942,7 @@
       <c r="G344" t="s">
         <v>1090</v>
       </c>
-      <c r="H344" t="s">
+      <c r="H344" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I344" t="s">
@@ -14942,7 +14971,7 @@
       <c r="G345" t="s">
         <v>1078</v>
       </c>
-      <c r="H345" t="s">
+      <c r="H345" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I345" t="s">
@@ -14971,7 +15000,7 @@
       <c r="G346" t="s">
         <v>1090</v>
       </c>
-      <c r="H346" t="s">
+      <c r="H346" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I346" t="s">
@@ -14997,7 +15026,7 @@
       <c r="F347" t="s">
         <v>13</v>
       </c>
-      <c r="H347" t="s">
+      <c r="H347" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I347" t="s">
@@ -15026,7 +15055,7 @@
       <c r="G348" t="s">
         <v>1601</v>
       </c>
-      <c r="H348" t="s">
+      <c r="H348" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I348" t="s">
@@ -15055,7 +15084,7 @@
       <c r="G349" t="s">
         <v>1090</v>
       </c>
-      <c r="H349" t="s">
+      <c r="H349" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I349" t="s">
@@ -15084,7 +15113,7 @@
       <c r="G350" t="s">
         <v>1602</v>
       </c>
-      <c r="H350" t="s">
+      <c r="H350" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I350" t="s">
@@ -15113,7 +15142,7 @@
       <c r="G351" t="s">
         <v>1602</v>
       </c>
-      <c r="H351" t="s">
+      <c r="H351" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I351" t="s">
@@ -15139,7 +15168,7 @@
       <c r="F352" t="s">
         <v>13</v>
       </c>
-      <c r="H352" t="s">
+      <c r="H352" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I352" t="s">
@@ -15168,7 +15197,7 @@
       <c r="G353" t="s">
         <v>1090</v>
       </c>
-      <c r="H353" t="s">
+      <c r="H353" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I353" t="s">
@@ -15197,7 +15226,7 @@
       <c r="G354" t="s">
         <v>1082</v>
       </c>
-      <c r="H354" t="s">
+      <c r="H354" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I354" t="s">
@@ -15226,7 +15255,7 @@
       <c r="G355" t="s">
         <v>1090</v>
       </c>
-      <c r="H355" t="s">
+      <c r="H355" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I355" t="s">
@@ -15252,7 +15281,7 @@
       <c r="F356" t="s">
         <v>13</v>
       </c>
-      <c r="H356" t="s">
+      <c r="H356" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I356" t="s">
@@ -15281,7 +15310,7 @@
       <c r="G357" t="s">
         <v>1090</v>
       </c>
-      <c r="H357" t="s">
+      <c r="H357" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I357" t="s">
@@ -15310,7 +15339,7 @@
       <c r="G358" t="s">
         <v>1090</v>
       </c>
-      <c r="H358" t="s">
+      <c r="H358" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I358" t="s">
@@ -15336,7 +15365,7 @@
       <c r="F359" t="s">
         <v>13</v>
       </c>
-      <c r="H359" t="s">
+      <c r="H359" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I359" t="s">
@@ -15365,7 +15394,7 @@
       <c r="G360" t="s">
         <v>1090</v>
       </c>
-      <c r="H360" t="s">
+      <c r="H360" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I360" t="s">
@@ -15394,7 +15423,7 @@
       <c r="G361" t="s">
         <v>1080</v>
       </c>
-      <c r="H361" t="s">
+      <c r="H361" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I361" t="s">
@@ -15423,7 +15452,7 @@
       <c r="G362" t="s">
         <v>1067</v>
       </c>
-      <c r="H362" t="s">
+      <c r="H362" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I362" t="s">
@@ -15452,7 +15481,7 @@
       <c r="G363" t="s">
         <v>1091</v>
       </c>
-      <c r="H363" t="s">
+      <c r="H363" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I363" t="s">
@@ -15478,6 +15507,9 @@
       <c r="F364" t="s">
         <v>791</v>
       </c>
+      <c r="H364" s="5">
+        <v>9</v>
+      </c>
       <c r="I364" t="s">
         <v>13</v>
       </c>
@@ -15501,7 +15533,7 @@
       <c r="F365" t="s">
         <v>13</v>
       </c>
-      <c r="H365" t="s">
+      <c r="H365" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I365" t="s">
@@ -15527,7 +15559,7 @@
       <c r="F366" t="s">
         <v>13</v>
       </c>
-      <c r="H366" t="s">
+      <c r="H366" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I366" t="s">
@@ -15556,7 +15588,7 @@
       <c r="G367" t="s">
         <v>1599</v>
       </c>
-      <c r="H367" t="s">
+      <c r="H367" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I367" t="s">
@@ -15585,7 +15617,7 @@
       <c r="G368" t="s">
         <v>1599</v>
       </c>
-      <c r="H368" t="s">
+      <c r="H368" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I368" t="s">
@@ -15614,7 +15646,7 @@
       <c r="G369" t="s">
         <v>1082</v>
       </c>
-      <c r="H369" t="s">
+      <c r="H369" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I369" t="s">
@@ -15643,7 +15675,7 @@
       <c r="G370" t="s">
         <v>1600</v>
       </c>
-      <c r="H370" t="s">
+      <c r="H370" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I370" t="s">
@@ -15672,7 +15704,7 @@
       <c r="G371" t="s">
         <v>1090</v>
       </c>
-      <c r="H371" t="s">
+      <c r="H371" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I371" t="s">
@@ -15701,7 +15733,7 @@
       <c r="G372" t="s">
         <v>1082</v>
       </c>
-      <c r="H372" t="s">
+      <c r="H372" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I372" t="s">
@@ -15730,7 +15762,7 @@
       <c r="G373" t="s">
         <v>1090</v>
       </c>
-      <c r="H373" t="s">
+      <c r="H373" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I373" t="s">
@@ -15756,7 +15788,7 @@
       <c r="F374" t="s">
         <v>13</v>
       </c>
-      <c r="H374" t="s">
+      <c r="H374" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I374" t="s">
@@ -15785,7 +15817,7 @@
       <c r="G375" t="s">
         <v>1078</v>
       </c>
-      <c r="H375" t="s">
+      <c r="H375" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I375" t="s">
@@ -15814,7 +15846,7 @@
       <c r="G376" t="s">
         <v>1090</v>
       </c>
-      <c r="H376" t="s">
+      <c r="H376" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I376" t="s">
@@ -15843,7 +15875,7 @@
       <c r="G377" t="s">
         <v>1078</v>
       </c>
-      <c r="H377" t="s">
+      <c r="H377" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I377" t="s">
@@ -15872,7 +15904,7 @@
       <c r="G378" t="s">
         <v>1090</v>
       </c>
-      <c r="H378" t="s">
+      <c r="H378" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I378" t="s">
@@ -15898,7 +15930,7 @@
       <c r="F379" t="s">
         <v>13</v>
       </c>
-      <c r="H379" t="s">
+      <c r="H379" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I379" t="s">
@@ -15927,7 +15959,7 @@
       <c r="G380" t="s">
         <v>1601</v>
       </c>
-      <c r="H380" t="s">
+      <c r="H380" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I380" t="s">
@@ -15956,7 +15988,7 @@
       <c r="G381" t="s">
         <v>1090</v>
       </c>
-      <c r="H381" t="s">
+      <c r="H381" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I381" t="s">
@@ -15985,7 +16017,7 @@
       <c r="G382" t="s">
         <v>1602</v>
       </c>
-      <c r="H382" t="s">
+      <c r="H382" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I382" t="s">
@@ -16014,7 +16046,7 @@
       <c r="G383" t="s">
         <v>1602</v>
       </c>
-      <c r="H383" t="s">
+      <c r="H383" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I383" t="s">
@@ -16040,7 +16072,7 @@
       <c r="F384" t="s">
         <v>13</v>
       </c>
-      <c r="H384" t="s">
+      <c r="H384" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I384" t="s">
@@ -16069,7 +16101,7 @@
       <c r="G385" t="s">
         <v>1090</v>
       </c>
-      <c r="H385" t="s">
+      <c r="H385" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I385" t="s">
@@ -16098,7 +16130,7 @@
       <c r="G386" t="s">
         <v>1082</v>
       </c>
-      <c r="H386" t="s">
+      <c r="H386" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I386" t="s">
@@ -16127,7 +16159,7 @@
       <c r="G387" t="s">
         <v>1090</v>
       </c>
-      <c r="H387" t="s">
+      <c r="H387" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I387" t="s">
@@ -16153,7 +16185,7 @@
       <c r="F388" t="s">
         <v>13</v>
       </c>
-      <c r="H388" t="s">
+      <c r="H388" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I388" t="s">
@@ -16182,7 +16214,7 @@
       <c r="G389" t="s">
         <v>1090</v>
       </c>
-      <c r="H389" t="s">
+      <c r="H389" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I389" t="s">
@@ -16211,7 +16243,7 @@
       <c r="G390" t="s">
         <v>1090</v>
       </c>
-      <c r="H390" t="s">
+      <c r="H390" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I390" t="s">
@@ -16237,7 +16269,7 @@
       <c r="F391" t="s">
         <v>13</v>
       </c>
-      <c r="H391" t="s">
+      <c r="H391" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I391" t="s">
@@ -16266,7 +16298,7 @@
       <c r="G392" t="s">
         <v>1090</v>
       </c>
-      <c r="H392" t="s">
+      <c r="H392" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I392" t="s">
@@ -16295,7 +16327,7 @@
       <c r="G393" t="s">
         <v>1080</v>
       </c>
-      <c r="H393" t="s">
+      <c r="H393" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I393" t="s">
@@ -16324,7 +16356,7 @@
       <c r="G394" t="s">
         <v>1067</v>
       </c>
-      <c r="H394" t="s">
+      <c r="H394" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I394" t="s">
@@ -16353,7 +16385,7 @@
       <c r="G395" t="s">
         <v>1091</v>
       </c>
-      <c r="H395" t="s">
+      <c r="H395" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I395" t="s">
@@ -16379,6 +16411,9 @@
       <c r="F396" t="s">
         <v>853</v>
       </c>
+      <c r="H396" s="5">
+        <v>9</v>
+      </c>
       <c r="I396" t="s">
         <v>13</v>
       </c>
@@ -16402,7 +16437,7 @@
       <c r="F397" t="s">
         <v>13</v>
       </c>
-      <c r="H397" t="s">
+      <c r="H397" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I397" t="s">
@@ -16428,7 +16463,7 @@
       <c r="F398" t="s">
         <v>13</v>
       </c>
-      <c r="H398" t="s">
+      <c r="H398" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I398" t="s">
@@ -16457,7 +16492,7 @@
       <c r="G399" t="s">
         <v>1599</v>
       </c>
-      <c r="H399" t="s">
+      <c r="H399" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I399" t="s">
@@ -16486,7 +16521,7 @@
       <c r="G400" t="s">
         <v>1599</v>
       </c>
-      <c r="H400" t="s">
+      <c r="H400" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I400" t="s">
@@ -16515,7 +16550,7 @@
       <c r="G401" t="s">
         <v>1082</v>
       </c>
-      <c r="H401" t="s">
+      <c r="H401" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I401" t="s">
@@ -16544,7 +16579,7 @@
       <c r="G402" t="s">
         <v>1600</v>
       </c>
-      <c r="H402" t="s">
+      <c r="H402" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I402" t="s">
@@ -16573,7 +16608,7 @@
       <c r="G403" t="s">
         <v>1090</v>
       </c>
-      <c r="H403" t="s">
+      <c r="H403" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I403" t="s">
@@ -16602,7 +16637,7 @@
       <c r="G404" t="s">
         <v>1082</v>
       </c>
-      <c r="H404" t="s">
+      <c r="H404" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I404" t="s">
@@ -16631,7 +16666,7 @@
       <c r="G405" t="s">
         <v>1090</v>
       </c>
-      <c r="H405" t="s">
+      <c r="H405" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I405" t="s">
@@ -16657,7 +16692,7 @@
       <c r="F406" t="s">
         <v>13</v>
       </c>
-      <c r="H406" t="s">
+      <c r="H406" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I406" t="s">
@@ -16686,7 +16721,7 @@
       <c r="G407" t="s">
         <v>1078</v>
       </c>
-      <c r="H407" t="s">
+      <c r="H407" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I407" t="s">
@@ -16715,7 +16750,7 @@
       <c r="G408" t="s">
         <v>1090</v>
       </c>
-      <c r="H408" t="s">
+      <c r="H408" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I408" t="s">
@@ -16744,7 +16779,7 @@
       <c r="G409" t="s">
         <v>1078</v>
       </c>
-      <c r="H409" t="s">
+      <c r="H409" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I409" t="s">
@@ -16773,7 +16808,7 @@
       <c r="G410" t="s">
         <v>1090</v>
       </c>
-      <c r="H410" t="s">
+      <c r="H410" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I410" t="s">
@@ -16799,7 +16834,7 @@
       <c r="F411" t="s">
         <v>13</v>
       </c>
-      <c r="H411" t="s">
+      <c r="H411" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I411" t="s">
@@ -16828,7 +16863,7 @@
       <c r="G412" t="s">
         <v>1601</v>
       </c>
-      <c r="H412" t="s">
+      <c r="H412" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I412" t="s">
@@ -16857,7 +16892,7 @@
       <c r="G413" t="s">
         <v>1090</v>
       </c>
-      <c r="H413" t="s">
+      <c r="H413" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I413" t="s">
@@ -16886,7 +16921,7 @@
       <c r="G414" t="s">
         <v>1602</v>
       </c>
-      <c r="H414" t="s">
+      <c r="H414" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I414" t="s">
@@ -16915,7 +16950,7 @@
       <c r="G415" t="s">
         <v>1602</v>
       </c>
-      <c r="H415" t="s">
+      <c r="H415" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I415" t="s">
@@ -16941,7 +16976,7 @@
       <c r="F416" t="s">
         <v>13</v>
       </c>
-      <c r="H416" t="s">
+      <c r="H416" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I416" t="s">
@@ -16970,7 +17005,7 @@
       <c r="G417" t="s">
         <v>1090</v>
       </c>
-      <c r="H417" t="s">
+      <c r="H417" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I417" t="s">
@@ -16999,7 +17034,7 @@
       <c r="G418" t="s">
         <v>1082</v>
       </c>
-      <c r="H418" t="s">
+      <c r="H418" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I418" t="s">
@@ -17028,7 +17063,7 @@
       <c r="G419" t="s">
         <v>1090</v>
       </c>
-      <c r="H419" t="s">
+      <c r="H419" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I419" t="s">
@@ -17054,7 +17089,7 @@
       <c r="F420" t="s">
         <v>13</v>
       </c>
-      <c r="H420" t="s">
+      <c r="H420" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I420" t="s">
@@ -17083,7 +17118,7 @@
       <c r="G421" t="s">
         <v>1090</v>
       </c>
-      <c r="H421" t="s">
+      <c r="H421" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I421" t="s">
@@ -17112,7 +17147,7 @@
       <c r="G422" t="s">
         <v>1090</v>
       </c>
-      <c r="H422" t="s">
+      <c r="H422" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I422" t="s">
@@ -17138,7 +17173,7 @@
       <c r="F423" t="s">
         <v>13</v>
       </c>
-      <c r="H423" t="s">
+      <c r="H423" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I423" t="s">
@@ -17167,7 +17202,7 @@
       <c r="G424" t="s">
         <v>1090</v>
       </c>
-      <c r="H424" t="s">
+      <c r="H424" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I424" t="s">
@@ -17196,7 +17231,7 @@
       <c r="G425" t="s">
         <v>1080</v>
       </c>
-      <c r="H425" t="s">
+      <c r="H425" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I425" t="s">
@@ -17225,7 +17260,7 @@
       <c r="G426" t="s">
         <v>1067</v>
       </c>
-      <c r="H426" t="s">
+      <c r="H426" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I426" t="s">
@@ -17254,7 +17289,7 @@
       <c r="G427" t="s">
         <v>1091</v>
       </c>
-      <c r="H427" t="s">
+      <c r="H427" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I427" t="s">
@@ -17280,6 +17315,9 @@
       <c r="F428" t="s">
         <v>916</v>
       </c>
+      <c r="H428" s="5">
+        <v>9</v>
+      </c>
       <c r="I428" t="s">
         <v>13</v>
       </c>
@@ -17303,7 +17341,7 @@
       <c r="F429" t="s">
         <v>13</v>
       </c>
-      <c r="H429" t="s">
+      <c r="H429" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I429" t="s">
@@ -17329,7 +17367,7 @@
       <c r="F430" t="s">
         <v>13</v>
       </c>
-      <c r="H430" t="s">
+      <c r="H430" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I430" t="s">
@@ -17358,7 +17396,7 @@
       <c r="G431" t="s">
         <v>1599</v>
       </c>
-      <c r="H431" t="s">
+      <c r="H431" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I431" t="s">
@@ -17387,7 +17425,7 @@
       <c r="G432" t="s">
         <v>1599</v>
       </c>
-      <c r="H432" t="s">
+      <c r="H432" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I432" t="s">
@@ -17416,7 +17454,7 @@
       <c r="G433" t="s">
         <v>1082</v>
       </c>
-      <c r="H433" t="s">
+      <c r="H433" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I433" t="s">
@@ -17445,7 +17483,7 @@
       <c r="G434" t="s">
         <v>1600</v>
       </c>
-      <c r="H434" t="s">
+      <c r="H434" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I434" t="s">
@@ -17474,7 +17512,7 @@
       <c r="G435" t="s">
         <v>1090</v>
       </c>
-      <c r="H435" t="s">
+      <c r="H435" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I435" t="s">
@@ -17503,7 +17541,7 @@
       <c r="G436" t="s">
         <v>1082</v>
       </c>
-      <c r="H436" t="s">
+      <c r="H436" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I436" t="s">
@@ -17532,7 +17570,7 @@
       <c r="G437" t="s">
         <v>1090</v>
       </c>
-      <c r="H437" t="s">
+      <c r="H437" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I437" t="s">
@@ -17558,7 +17596,7 @@
       <c r="F438" t="s">
         <v>13</v>
       </c>
-      <c r="H438" t="s">
+      <c r="H438" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I438" t="s">
@@ -17587,7 +17625,7 @@
       <c r="G439" t="s">
         <v>1078</v>
       </c>
-      <c r="H439" t="s">
+      <c r="H439" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I439" t="s">
@@ -17616,7 +17654,7 @@
       <c r="G440" t="s">
         <v>1090</v>
       </c>
-      <c r="H440" t="s">
+      <c r="H440" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I440" t="s">
@@ -17645,7 +17683,7 @@
       <c r="G441" t="s">
         <v>1078</v>
       </c>
-      <c r="H441" t="s">
+      <c r="H441" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I441" t="s">
@@ -17674,7 +17712,7 @@
       <c r="G442" t="s">
         <v>1090</v>
       </c>
-      <c r="H442" t="s">
+      <c r="H442" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I442" t="s">
@@ -17700,7 +17738,7 @@
       <c r="F443" t="s">
         <v>13</v>
       </c>
-      <c r="H443" t="s">
+      <c r="H443" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I443" t="s">
@@ -17729,7 +17767,7 @@
       <c r="G444" t="s">
         <v>1601</v>
       </c>
-      <c r="H444" t="s">
+      <c r="H444" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I444" t="s">
@@ -17758,7 +17796,7 @@
       <c r="G445" t="s">
         <v>1090</v>
       </c>
-      <c r="H445" t="s">
+      <c r="H445" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I445" t="s">
@@ -17787,7 +17825,7 @@
       <c r="G446" t="s">
         <v>1602</v>
       </c>
-      <c r="H446" t="s">
+      <c r="H446" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I446" t="s">
@@ -17816,7 +17854,7 @@
       <c r="G447" t="s">
         <v>1602</v>
       </c>
-      <c r="H447" t="s">
+      <c r="H447" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I447" t="s">
@@ -17842,7 +17880,7 @@
       <c r="F448" t="s">
         <v>13</v>
       </c>
-      <c r="H448" t="s">
+      <c r="H448" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I448" t="s">
@@ -17871,7 +17909,7 @@
       <c r="G449" t="s">
         <v>1090</v>
       </c>
-      <c r="H449" t="s">
+      <c r="H449" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I449" t="s">
@@ -17900,7 +17938,7 @@
       <c r="G450" t="s">
         <v>1082</v>
       </c>
-      <c r="H450" t="s">
+      <c r="H450" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I450" t="s">
@@ -17929,7 +17967,7 @@
       <c r="G451" t="s">
         <v>1090</v>
       </c>
-      <c r="H451" t="s">
+      <c r="H451" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I451" t="s">
@@ -17955,7 +17993,7 @@
       <c r="F452" t="s">
         <v>13</v>
       </c>
-      <c r="H452" t="s">
+      <c r="H452" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I452" t="s">
@@ -17984,7 +18022,7 @@
       <c r="G453" t="s">
         <v>1090</v>
       </c>
-      <c r="H453" t="s">
+      <c r="H453" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I453" t="s">
@@ -18013,7 +18051,7 @@
       <c r="G454" t="s">
         <v>1090</v>
       </c>
-      <c r="H454" t="s">
+      <c r="H454" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I454" t="s">
@@ -18039,7 +18077,7 @@
       <c r="F455" t="s">
         <v>13</v>
       </c>
-      <c r="H455" t="s">
+      <c r="H455" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I455" t="s">
@@ -18068,7 +18106,7 @@
       <c r="G456" t="s">
         <v>1090</v>
       </c>
-      <c r="H456" t="s">
+      <c r="H456" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I456" t="s">
@@ -18097,7 +18135,7 @@
       <c r="G457" t="s">
         <v>1080</v>
       </c>
-      <c r="H457" t="s">
+      <c r="H457" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I457" t="s">
@@ -18126,7 +18164,7 @@
       <c r="G458" t="s">
         <v>1067</v>
       </c>
-      <c r="H458" t="s">
+      <c r="H458" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I458" t="s">
@@ -18155,7 +18193,7 @@
       <c r="G459" t="s">
         <v>1091</v>
       </c>
-      <c r="H459" t="s">
+      <c r="H459" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I459" t="s">
@@ -18181,6 +18219,9 @@
       <c r="F460" t="s">
         <v>976</v>
       </c>
+      <c r="H460" s="5">
+        <v>9</v>
+      </c>
       <c r="I460" t="s">
         <v>13</v>
       </c>
@@ -18204,7 +18245,7 @@
       <c r="F461" t="s">
         <v>13</v>
       </c>
-      <c r="H461" t="s">
+      <c r="H461" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I461" t="s">
@@ -18230,7 +18271,7 @@
       <c r="F462" t="s">
         <v>13</v>
       </c>
-      <c r="H462" t="s">
+      <c r="H462" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I462" t="s">
@@ -18259,7 +18300,7 @@
       <c r="G463" t="s">
         <v>1599</v>
       </c>
-      <c r="H463" t="s">
+      <c r="H463" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I463" t="s">
@@ -18288,7 +18329,7 @@
       <c r="G464" t="s">
         <v>1599</v>
       </c>
-      <c r="H464" t="s">
+      <c r="H464" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I464" t="s">
@@ -18317,7 +18358,7 @@
       <c r="G465" t="s">
         <v>1082</v>
       </c>
-      <c r="H465" t="s">
+      <c r="H465" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I465" t="s">
@@ -18346,7 +18387,7 @@
       <c r="G466" t="s">
         <v>1600</v>
       </c>
-      <c r="H466" t="s">
+      <c r="H466" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I466" t="s">
@@ -18375,7 +18416,7 @@
       <c r="G467" t="s">
         <v>1090</v>
       </c>
-      <c r="H467" t="s">
+      <c r="H467" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I467" t="s">
@@ -18404,7 +18445,7 @@
       <c r="G468" t="s">
         <v>1082</v>
       </c>
-      <c r="H468" t="s">
+      <c r="H468" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I468" t="s">
@@ -18433,7 +18474,7 @@
       <c r="G469" t="s">
         <v>1090</v>
       </c>
-      <c r="H469" t="s">
+      <c r="H469" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I469" t="s">
@@ -18459,7 +18500,7 @@
       <c r="F470" t="s">
         <v>13</v>
       </c>
-      <c r="H470" t="s">
+      <c r="H470" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I470" t="s">
@@ -18488,7 +18529,7 @@
       <c r="G471" t="s">
         <v>1078</v>
       </c>
-      <c r="H471" t="s">
+      <c r="H471" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I471" t="s">
@@ -18517,7 +18558,7 @@
       <c r="G472" t="s">
         <v>1090</v>
       </c>
-      <c r="H472" t="s">
+      <c r="H472" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I472" t="s">
@@ -18546,7 +18587,7 @@
       <c r="G473" t="s">
         <v>1078</v>
       </c>
-      <c r="H473" t="s">
+      <c r="H473" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I473" t="s">
@@ -18575,7 +18616,7 @@
       <c r="G474" t="s">
         <v>1090</v>
       </c>
-      <c r="H474" t="s">
+      <c r="H474" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I474" t="s">
@@ -18601,7 +18642,7 @@
       <c r="F475" t="s">
         <v>13</v>
       </c>
-      <c r="H475" t="s">
+      <c r="H475" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I475" t="s">
@@ -18630,7 +18671,7 @@
       <c r="G476" t="s">
         <v>1601</v>
       </c>
-      <c r="H476" t="s">
+      <c r="H476" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I476" t="s">
@@ -18659,7 +18700,7 @@
       <c r="G477" t="s">
         <v>1090</v>
       </c>
-      <c r="H477" t="s">
+      <c r="H477" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I477" t="s">
@@ -18688,7 +18729,7 @@
       <c r="G478" t="s">
         <v>1602</v>
       </c>
-      <c r="H478" t="s">
+      <c r="H478" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I478" t="s">
@@ -18717,7 +18758,7 @@
       <c r="G479" t="s">
         <v>1602</v>
       </c>
-      <c r="H479" t="s">
+      <c r="H479" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I479" t="s">
@@ -18743,7 +18784,7 @@
       <c r="F480" t="s">
         <v>13</v>
       </c>
-      <c r="H480" t="s">
+      <c r="H480" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I480" t="s">
@@ -18772,7 +18813,7 @@
       <c r="G481" t="s">
         <v>1090</v>
       </c>
-      <c r="H481" t="s">
+      <c r="H481" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I481" t="s">
@@ -18801,7 +18842,7 @@
       <c r="G482" t="s">
         <v>1082</v>
       </c>
-      <c r="H482" t="s">
+      <c r="H482" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I482" t="s">
@@ -18830,7 +18871,7 @@
       <c r="G483" t="s">
         <v>1090</v>
       </c>
-      <c r="H483" t="s">
+      <c r="H483" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I483" t="s">
@@ -18856,7 +18897,7 @@
       <c r="F484" t="s">
         <v>13</v>
       </c>
-      <c r="H484" t="s">
+      <c r="H484" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I484" t="s">
@@ -18885,7 +18926,7 @@
       <c r="G485" t="s">
         <v>1090</v>
       </c>
-      <c r="H485" t="s">
+      <c r="H485" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I485" t="s">
@@ -18914,7 +18955,7 @@
       <c r="G486" t="s">
         <v>1090</v>
       </c>
-      <c r="H486" t="s">
+      <c r="H486" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I486" t="s">
@@ -18940,7 +18981,7 @@
       <c r="F487" t="s">
         <v>13</v>
       </c>
-      <c r="H487" t="s">
+      <c r="H487" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I487" t="s">
@@ -18969,7 +19010,7 @@
       <c r="G488" t="s">
         <v>1090</v>
       </c>
-      <c r="H488" t="s">
+      <c r="H488" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I488" t="s">
@@ -18998,7 +19039,7 @@
       <c r="G489" t="s">
         <v>1080</v>
       </c>
-      <c r="H489" t="s">
+      <c r="H489" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I489" t="s">
@@ -19027,7 +19068,7 @@
       <c r="G490" t="s">
         <v>1067</v>
       </c>
-      <c r="H490" t="s">
+      <c r="H490" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I490" t="s">
@@ -19056,7 +19097,7 @@
       <c r="G491" t="s">
         <v>1091</v>
       </c>
-      <c r="H491" t="s">
+      <c r="H491" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I491" t="s">
@@ -19082,6 +19123,9 @@
       <c r="F492" t="s">
         <v>1037</v>
       </c>
+      <c r="H492" s="5">
+        <v>9</v>
+      </c>
       <c r="I492" t="s">
         <v>13</v>
       </c>
@@ -19105,7 +19149,7 @@
       <c r="F493" t="s">
         <v>13</v>
       </c>
-      <c r="H493" t="s">
+      <c r="H493" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I493" t="s">
@@ -19134,7 +19178,7 @@
       <c r="G494" t="s">
         <v>1090</v>
       </c>
-      <c r="H494" t="s">
+      <c r="H494" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I494" t="s">
@@ -19163,7 +19207,7 @@
       <c r="G495" t="s">
         <v>1090</v>
       </c>
-      <c r="H495" t="s">
+      <c r="H495" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I495" t="s">
@@ -19192,7 +19236,7 @@
       <c r="G496" t="s">
         <v>1090</v>
       </c>
-      <c r="H496" t="s">
+      <c r="H496" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I496" t="s">
